--- a/biology/Botanique/Ludwig_Jungermann/Ludwig_Jungermann.xlsx
+++ b/biology/Botanique/Ludwig_Jungermann/Ludwig_Jungermann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Jungermann est un médecin et un botaniste allemand, né le 4 juillet 1572 à Leipzig et mort le 7 juin 1653 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Caspar Jungermann (1531-1606), enseigne le droit à Leipzig ; sa mère, Ursula Camerarius (1539-1604), est la fille de l’humaniste Joachim Camerarius l'Ancien (1500-1574), ami de Philippe Melanchthon (1497-1560).
 Il étudie la médecine à Nuremberg et enseigne, de 1614 à 1625, l’anatomie et la botanique à Gießen. En 1616, il refuse de remplacer Mathias de l'Obel (1538-1616), de même qu’il repousse deux offres des universités de Rostock et de Rinteln. Il crée un jardin de plantes médicinales (Hortus medicus) à Gießen. Celui-ci existe encore et est le plus ancien jardin botanique d’Allemagne.
